--- a/datos/DSY1102-E1-B.xlsx
+++ b/datos/DSY1102-E1-B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Docencia/DuocUC/Coordinación/DSY1102/Resultados/E1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B20FA3-A6C5-844F-A53F-4462C965631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68904023-5FCA-EF44-A845-B0847544CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0CCBC5D3-8812-5249-907C-66D40AB2A74F}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0CCBC5D3-8812-5249-907C-66D40AB2A74F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6AED5F-8477-F64D-B34A-8B235383E348}">
-  <dimension ref="A1:AG73"/>
+  <dimension ref="A1:AG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="E59" workbookViewId="0">
+      <selection activeCell="AG74" sqref="AG74:AG103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7800,6 +7800,3036 @@
         <v>7</v>
       </c>
     </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20734674</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>21481757</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>21339610</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>21680800</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AG77">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>16005202</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20730806</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>19501552</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>21427260</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>21184932</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>21669402</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <v>1</v>
+      </c>
+      <c r="AG83">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>21026161</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>21501742</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>21994935</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>22056102</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>21588043</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+      <c r="AG88">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20681033</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
+      </c>
+      <c r="AC89">
+        <v>1</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
+      <c r="AF89">
+        <v>1</v>
+      </c>
+      <c r="AG89">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>21589312</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>21662547</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20961576</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <v>1</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>21007892</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>21258599</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+      <c r="AA94">
+        <v>1</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+      <c r="AC94">
+        <v>1</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+      <c r="AG94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>21610254</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <v>1</v>
+      </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>22026690</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>1</v>
+      </c>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+      <c r="AC96">
+        <v>1</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>21486305</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>1</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>19510431</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>1</v>
+      </c>
+      <c r="AB98">
+        <v>1</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>17223357</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99">
+        <v>1</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <v>1</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20515077</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>1</v>
+      </c>
+      <c r="AB100">
+        <v>1</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>21635730</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>1</v>
+      </c>
+      <c r="AC101">
+        <v>1</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>19977738</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102">
+        <v>1</v>
+      </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <v>1</v>
+      </c>
+      <c r="AA102">
+        <v>1</v>
+      </c>
+      <c r="AB102">
+        <v>1</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>18525428</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103">
+        <v>1</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103">
+        <v>1</v>
+      </c>
+      <c r="Y103">
+        <v>1</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+      <c r="AA103">
+        <v>1</v>
+      </c>
+      <c r="AB103">
+        <v>1</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>1</v>
+      </c>
+      <c r="AE103">
+        <v>1</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
+      </c>
+      <c r="AG103">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
